--- a/vaadin-spreadsheet/src/test/resources/test_sheets/picture_sheet.xlsx
+++ b/vaadin-spreadsheet/src/test/resources/test_sheets/picture_sheet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\GIT\tagetik-2017-spreadsheet-1.4\tagetik-2017-spreadsheet\vaadin-spreadsheet\src\test\resources\test_sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="500" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="5220" yWindow="495" windowWidth="25605" windowHeight="18375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,6 +154,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -964,20 +977,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:XFD85"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="20.875" customWidth="1"/>
     <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28" customHeight="1">
+    <row r="1" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -994,16 +1005,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="39" customHeight="1">
+    <row r="2" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="25" customHeight="1"/>
-    <row r="15" spans="1:18" hidden="1"/>
-    <row r="17" hidden="1"/>
-    <row r="18" hidden="1"/>
-    <row r="36" spans="1:18">
+    <row r="3" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="17" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="18" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>6</v>
       </c>
@@ -1020,15 +1031,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="30">
+    <row r="37" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="25" customHeight="1"/>
-    <row r="50" hidden="1"/>
-    <row r="51" hidden="1"/>
-    <row r="70" spans="1:18">
+    <row r="39" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
@@ -1058,7 +1069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="30" customHeight="1">
+    <row r="71" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1086,7 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3"/>
@@ -1090,7 +1101,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3"/>
@@ -1105,7 +1116,7 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="1:18" ht="41" customHeight="1">
+    <row r="74" spans="1:18" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="F74" s="1"/>
@@ -1114,7 +1125,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="F75" s="1"/>
@@ -1123,13 +1134,13 @@
       <c r="I75" s="2"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="F76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="F77" s="1"/>
@@ -1138,7 +1149,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="F78" s="1"/>
@@ -1147,7 +1158,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="F79" s="1"/>
@@ -1156,7 +1167,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1168,7 +1179,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1180,7 +1191,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1192,7 +1203,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" hidden="1">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1204,7 +1215,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1216,7 +1227,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" hidden="1">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1228,7 +1239,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1240,7 +1251,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1252,7 +1263,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1264,7 +1275,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1276,7 +1287,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1288,7 +1299,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1300,7 +1311,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1312,7 +1323,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1324,7 +1335,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1336,7 +1347,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1348,7 +1359,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1360,7 +1371,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1372,7 +1383,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1384,7 +1395,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S103" t="s">
         <v>12</v>
       </c>

--- a/vaadin-spreadsheet/src/test/resources/test_sheets/picture_sheet.xlsx
+++ b/vaadin-spreadsheet/src/test/resources/test_sheets/picture_sheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\GIT\tagetik-2017-spreadsheet-1.4\tagetik-2017-spreadsheet\vaadin-spreadsheet\src\test\resources\test_sheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="495" windowWidth="25605" windowHeight="18375" tabRatio="500"/>
+    <workbookView xWindow="5220" yWindow="500" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,14 +149,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -977,18 +964,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:XFD85"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
     <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="28" customHeight="1">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -1005,16 +994,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="39" customHeight="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="18" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="25" customHeight="1"/>
+    <row r="15" spans="1:18" hidden="1"/>
+    <row r="17" hidden="1"/>
+    <row r="18" hidden="1"/>
+    <row r="36" spans="1:18">
       <c r="C36" t="s">
         <v>6</v>
       </c>
@@ -1031,15 +1020,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="30">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="25" customHeight="1"/>
+    <row r="50" hidden="1"/>
+    <row r="51" hidden="1"/>
+    <row r="70" spans="1:18">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
@@ -1069,7 +1058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="30" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -1086,7 +1075,7 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72" s="4"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3"/>
@@ -1101,7 +1090,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3"/>
@@ -1116,7 +1105,7 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="1:18" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="41" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="F74" s="1"/>
@@ -1125,7 +1114,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="F75" s="1"/>
@@ -1134,13 +1123,13 @@
       <c r="I75" s="2"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="F76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="F77" s="1"/>
@@ -1149,7 +1138,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="F78" s="1"/>
@@ -1158,7 +1147,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="F79" s="1"/>
@@ -1167,7 +1156,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1179,7 +1168,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1191,7 +1180,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1203,7 +1192,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1215,7 +1204,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1227,7 +1216,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1239,7 +1228,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1251,7 +1240,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1263,7 +1252,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1275,7 +1264,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1287,7 +1276,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1299,7 +1288,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1311,7 +1300,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1323,7 +1312,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1335,7 +1324,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1347,7 +1336,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1359,7 +1348,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1371,7 +1360,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1383,7 +1372,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1395,7 +1384,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19">
       <c r="S103" t="s">
         <v>12</v>
       </c>
